--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2051229.620847473</v>
+        <v>2048684.434774189</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>20.57102980333316</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>226.9736586744965</v>
+        <v>8.787420751036535</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>84.11892151122089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>287.1295912089695</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964033</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>298.7129028388748</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>41.63683299435563</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>53.41390541419266</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377022</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>60.64713141731118</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137363</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>180.9172429496413</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507434</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>27.0291980517616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.24347904696321</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>117.4765410832877</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.936238874645</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>180.330238561827</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141758</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>232.6961289392736</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2740711281133</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,16 +4189,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>223.6233581343926</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667501</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.683768698139</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>825.7212517577275</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>467.455553150977</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>81.66730055273274</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>74.72179980352927</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1194.683768698139</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W4" t="n">
-        <v>498.8626623130036</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1249.542876750359</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4729,31 +4729,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
         <v>308.6274700262513</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1335.655328379869</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="C8" t="n">
-        <v>966.6928114394575</v>
+        <v>1301.680602758764</v>
       </c>
       <c r="D8" t="n">
-        <v>608.4271128327071</v>
+        <v>1301.680602758764</v>
       </c>
       <c r="E8" t="n">
-        <v>222.6388602344628</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
-        <v>215.6933594852594</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4805,22 +4805,22 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>617.9730006750465</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1166.769932166871</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1794.077600226718</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.394500419803</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.394500419803</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="Y8" t="n">
-        <v>1722.255168443991</v>
+        <v>1603.410807646517</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9452297060877</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1853.433914230804</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2012.946226899564</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2436.913995380401</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>379.2980437562643</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>325.3446039439485</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>325.3446039439485</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>325.3446039439485</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>668.715213793225</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>379.2980437562643</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>379.2980437562643</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>379.2980437562643</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,7 +5039,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075813</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101285</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>803.2707707770332</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>634.3345878491264</v>
       </c>
       <c r="D16" t="n">
         <v>555.8158034133954</v>
@@ -5425,13 +5425,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>984.919235607273</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797758</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6218,34 +6218,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2389.141387573227</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1880.464695940366</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1625.780207734479</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1336.363037697518</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>1108.373486799501</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.5809076559709</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,22 +7257,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.927936255316</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V40" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>966.2295783107356</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>866.4638174991043</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1751.578900576778</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1496.894412370891</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1268.904861472874</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>1048.112282329344</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,13 +8453,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>365.7550693600172</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>283.1760056204237</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>178.4213158373901</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>5.684341886080801e-13</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092564</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.77391660562176</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.88187642683873</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>71.22040037418762</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788442</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.131767663158477</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25321,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762386</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>105.8542358274172</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>127.7255247667948</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>53.48834544997058</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.4355842609238</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,16 +26077,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>62.5611162548515</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>852383.4813946052</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.238904999</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830047</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080587</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682754</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682768</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682768</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682763</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682717</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682716</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682762</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682729</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308020.1338359885</v>
+        <v>-308020.1338359884</v>
       </c>
       <c r="C6" t="n">
         <v>281947.7453785558</v>
       </c>
       <c r="D6" t="n">
-        <v>126143.9392847607</v>
+        <v>126143.9392847613</v>
       </c>
       <c r="E6" t="n">
-        <v>-312850.137988392</v>
+        <v>-312884.8759138273</v>
       </c>
       <c r="F6" t="n">
-        <v>458202.5533924144</v>
+        <v>458167.8154669792</v>
       </c>
       <c r="G6" t="n">
-        <v>458202.5533924145</v>
+        <v>458167.8154669791</v>
       </c>
       <c r="H6" t="n">
-        <v>458202.5533924146</v>
+        <v>458167.8154669791</v>
       </c>
       <c r="I6" t="n">
-        <v>458202.5533924146</v>
+        <v>458167.8154669787</v>
       </c>
       <c r="J6" t="n">
-        <v>281779.3341998218</v>
+        <v>281744.5962743862</v>
       </c>
       <c r="K6" t="n">
-        <v>458202.5533924144</v>
+        <v>458167.8154669791</v>
       </c>
       <c r="L6" t="n">
-        <v>458202.5533924146</v>
+        <v>458167.8154669791</v>
       </c>
       <c r="M6" t="n">
-        <v>333994.0426843564</v>
+        <v>333959.3047589203</v>
       </c>
       <c r="N6" t="n">
-        <v>458202.5533924144</v>
+        <v>458167.8154669792</v>
       </c>
       <c r="O6" t="n">
-        <v>458202.5533924145</v>
+        <v>458167.8154669792</v>
       </c>
       <c r="P6" t="n">
-        <v>458202.5533924146</v>
+        <v>458167.8154669791</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26799,16 +26799,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26975,22 +26975,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>393.2131402174618</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>59.54933966209452</v>
+        <v>277.7355775855544</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>281.1539702597867</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>67.55345041171341</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168096</v>
+        <v>197.662087304794</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>66.5599889321328</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>371.2800709515811</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>113.8329156844352</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28068,16 +28068,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,31 +32309,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3420541567482</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.6051949514474</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>554.3403348402269</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35191,7 +35191,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>421.7917611918317</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>201.3879231121144</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010464</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191328</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191328</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191328</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
